--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengche/Mint/CodePlayground/Playground/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD270B0-39C9-CD4B-89E9-012363CF8374}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21160" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31880" windowHeight="17640" tabRatio="993" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Library preparation protocol" sheetId="9" r:id="rId10"/>
     <sheet name="Sequencing protocol" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="702">
   <si>
     <t>A short name for the project.</t>
   </si>
@@ -2140,12 +2141,18 @@
   </si>
   <si>
     <t>pbmc4k_200k_S1_L001_I1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.nucleic_acid_source</t>
+  </si>
+  <si>
+    <t>single cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2622,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2849,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>696</v>
       </c>
@@ -2896,16 +2903,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AU5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>464</v>
       </c>
@@ -2951,101 +2961,102 @@
       <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>390</v>
       </c>
@@ -3092,100 +3103,103 @@
         <v>546</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>478</v>
       </c>
@@ -3201,80 +3215,80 @@
       <c r="I3" t="s">
         <v>558</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>316</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>317</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>318</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>319</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>320</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>321</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>316</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>317</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>318</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>319</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>320</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>321</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>559</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>560</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>561</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>316</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>317</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>318</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>319</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>320</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>321</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>562</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>557</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>457</v>
       </c>
@@ -3320,101 +3334,104 @@
       <c r="O4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -3432,7 +3449,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -3464,8 +3481,9 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
     </row>
-    <row r="6" spans="1:47" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>672</v>
       </c>
@@ -3502,32 +3520,35 @@
       <c r="O6" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="AB6" s="6" t="s">
+      <c r="P6" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="AC6" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AM6" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AN6" s="6">
         <v>0</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AO6" s="6">
         <v>16</v>
       </c>
-      <c r="AO6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3538,10 +3559,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -3768,7 +3789,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>675</v>
       </c>
@@ -3828,7 +3849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +3862,7 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -3984,7 +4005,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>97</v>
       </c>
@@ -4018,7 +4039,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4026,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -4637,7 +4658,7 @@
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
     </row>
-    <row r="6" spans="1:55" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>654</v>
       </c>
@@ -4778,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5288,7 +5309,7 @@
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
     </row>
-    <row r="6" spans="1:42" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>660</v>
       </c>
@@ -5366,10 +5387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -5766,7 +5787,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>663</v>
       </c>
@@ -5862,10 +5883,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6020,7 +6041,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>697</v>
       </c>
@@ -6055,7 +6076,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>698</v>
       </c>
@@ -6090,7 +6111,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>699</v>
       </c>
@@ -6146,7 +6167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6348,7 +6369,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>666</v>
       </c>
@@ -6402,7 +6423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6609,7 +6630,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>669</v>
       </c>
@@ -6645,7 +6666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6812,7 +6833,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>678</v>
       </c>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehsan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02708948-28E5-FB4F-8356-1978A91E36EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Library preparation protocol" sheetId="9" r:id="rId10"/>
     <sheet name="Sequencing protocol" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -183,18 +184,12 @@
     <t>project.publications.authors</t>
   </si>
   <si>
-    <t>project.publications.publication_title</t>
-  </si>
-  <si>
     <t>project.publications.doi</t>
   </si>
   <si>
     <t>project.publications.pmid</t>
   </si>
   <si>
-    <t>project.publications.publication_url</t>
-  </si>
-  <si>
     <t>project.funders.grant_title</t>
   </si>
   <si>
@@ -327,9 +322,6 @@
     <t>project.contributors.corresponding_contributor</t>
   </si>
   <si>
-    <t>project.contributors.project_role</t>
-  </si>
-  <si>
     <t>project.contributors.orcid_id</t>
   </si>
   <si>
@@ -2134,13 +2126,22 @@
   </si>
   <si>
     <t>1fd5dad6d1f95205793ec735d61481d0</t>
+  </si>
+  <si>
+    <t>project.contributors.project_role.text</t>
+  </si>
+  <si>
+    <t>project.publications.url</t>
+  </si>
+  <si>
+    <t>project.publications.title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2186,6 +2187,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2213,7 +2220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2243,6 +2250,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2627,11 +2635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2690,7 +2698,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2793,42 +2801,42 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2846,21 +2854,21 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>34</v>
@@ -2869,7 +2877,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>36</v>
@@ -2900,7 +2908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
@@ -2918,523 +2926,523 @@
   <sheetData>
     <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="AQ1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G3" t="s">
+        <v>534</v>
+      </c>
+      <c r="I3" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R3" t="s">
+        <v>306</v>
+      </c>
+      <c r="S3" t="s">
+        <v>307</v>
+      </c>
+      <c r="T3" t="s">
+        <v>308</v>
+      </c>
+      <c r="U3" t="s">
+        <v>309</v>
+      </c>
+      <c r="V3" t="s">
+        <v>310</v>
+      </c>
+      <c r="W3" t="s">
+        <v>305</v>
+      </c>
+      <c r="X3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD3" t="s">
         <v>537</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AE3" t="s">
         <v>538</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AF3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI3" t="s">
         <v>308</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AJ3" t="s">
         <v>309</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AK3" t="s">
         <v>310</v>
       </c>
-      <c r="T3" t="s">
-        <v>311</v>
-      </c>
-      <c r="U3" t="s">
-        <v>312</v>
-      </c>
-      <c r="V3" t="s">
-        <v>313</v>
-      </c>
-      <c r="W3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AL3" t="s">
         <v>539</v>
       </c>
-      <c r="AD3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>542</v>
-      </c>
       <c r="AM3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AO3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>575</v>
-      </c>
       <c r="AP4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3484,58 +3492,58 @@
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
     </row>
-    <row r="6" spans="1:48" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>580</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AN6" s="6">
         <v>0</v>
@@ -3544,13 +3552,13 @@
         <v>16</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AR6" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,199 +3579,199 @@
   <sheetData>
     <row r="1" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3784,57 +3792,57 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3844,11 +3852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3857,137 +3865,137 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4000,41 +4008,41 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4042,7 +4050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
@@ -4056,520 +4064,520 @@
   <sheetData>
     <row r="1" spans="1:51" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
         <v>185</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>186</v>
       </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>187</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>189</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>190</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>191</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>192</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>193</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>194</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AA3" t="s">
         <v>195</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AK3" t="s">
         <v>196</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AO3" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AS3" t="s">
         <v>198</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AT3" t="s">
         <v>199</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4621,45 +4629,45 @@
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:51" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>36.4</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N6" s="7">
         <v>4</v>
@@ -4668,91 +4676,91 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Z6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AA6" s="7">
         <v>20</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AH6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AI6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AJ6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO6" s="7">
         <v>160</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AS6" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AT6" s="7">
         <v>60</v>
       </c>
       <c r="AU6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX6" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4773,456 +4781,456 @@
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="F3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" t="s">
-        <v>188</v>
-      </c>
       <c r="U3" t="s">
+        <v>294</v>
+      </c>
+      <c r="W3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y3" t="s">
         <v>297</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>298</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>299</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>300</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>301</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>302</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AH3" t="s">
         <v>303</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AI3" t="s">
         <v>304</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AJ3" t="s">
         <v>305</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>306</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
         <v>307</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
         <v>308</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>309</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AO3" t="s">
         <v>310</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5266,75 +5274,75 @@
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
     </row>
-    <row r="6" spans="1:42" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="R6" t="s">
+        <v>651</v>
+      </c>
+      <c r="S6" t="s">
+        <v>652</v>
+      </c>
+      <c r="T6" t="s">
+        <v>651</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="V6" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" t="s">
-        <v>654</v>
-      </c>
-      <c r="S6" t="s">
-        <v>655</v>
-      </c>
-      <c r="T6" t="s">
-        <v>654</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="AP6" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -5344,10 +5352,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
@@ -5358,356 +5366,356 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="F3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" t="s">
-        <v>188</v>
-      </c>
       <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" t="s">
         <v>381</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>382</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>383</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>384</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>385</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>386</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>388</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>389</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AD3" t="s">
         <v>390</v>
-      </c>
-      <c r="V3" t="s">
-        <v>391</v>
-      </c>
-      <c r="W3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>393</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5738,58 +5746,58 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N6" s="6">
         <v>85.3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q6" s="6">
         <v>10</v>
@@ -5798,34 +5806,34 @@
         <v>22</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="W6" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AD6" s="11">
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -5838,7 +5846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5857,131 +5865,131 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" t="s">
         <v>433</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>434</v>
-      </c>
-      <c r="F3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H3" t="s">
-        <v>437</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" t="s">
         <v>443</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5991,24 +5999,24 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -6017,33 +6025,33 @@
         <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -6052,33 +6060,33 @@
         <v>98</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -6087,16 +6095,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6109,7 +6117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6123,177 +6131,177 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" t="s">
         <v>308</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>309</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>310</v>
-      </c>
-      <c r="M3" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" t="s">
-        <v>312</v>
-      </c>
-      <c r="O3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6311,51 +6319,51 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6365,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6376,105 +6384,105 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6485,33 +6493,33 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -6521,7 +6529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6537,141 +6545,141 @@
   <sheetData>
     <row r="1" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6686,36 +6694,36 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K6" s="6">
         <v>70</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02708948-28E5-FB4F-8356-1978A91E36EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87DEAE-4A1A-C24A-A7AF-E9725F8B0D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -658,12 +658,6 @@
     <t>donor_organism.biomaterial_core.genotype</t>
   </si>
   <si>
-    <t>donor_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>donor_organism.human_specific.body_mass_index</t>
   </si>
   <si>
@@ -991,12 +985,6 @@
     <t>specimen_from_organism.biomaterial_core.genotype</t>
   </si>
   <si>
-    <t>specimen_from_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>specimen_from_organism.state_of_specimen.autolysis_score</t>
   </si>
   <si>
@@ -1231,12 +1219,6 @@
     <t>cell_suspension.biomaterial_core.genotype</t>
   </si>
   <si>
-    <t>cell_suspension.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>cell_suspension.cell_morphology.cell_morphology</t>
   </si>
   <si>
@@ -2135,6 +2117,24 @@
   </si>
   <si>
     <t>project.publications.title</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.insdc_sample_accession</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2801,7 +2801,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -2810,19 +2810,19 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>49</v>
@@ -2831,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2856,13 +2856,13 @@
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
@@ -2926,34 +2926,34 @@
   <sheetData>
     <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>108</v>
@@ -2962,7 +2962,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>108</v>
@@ -2972,82 +2972,82 @@
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>108</v>
@@ -3056,7 +3056,7 @@
         <v>109</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>108</v>
@@ -3067,377 +3067,377 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Q3" t="s">
+        <v>303</v>
+      </c>
+      <c r="R3" t="s">
+        <v>304</v>
+      </c>
+      <c r="S3" t="s">
         <v>305</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>306</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>307</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>308</v>
       </c>
-      <c r="U3" t="s">
-        <v>309</v>
-      </c>
-      <c r="V3" t="s">
-        <v>310</v>
-      </c>
       <c r="W3" t="s">
+        <v>303</v>
+      </c>
+      <c r="X3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y3" t="s">
         <v>305</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>306</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>307</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>308</v>
       </c>
-      <c r="AA3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>310</v>
-      </c>
       <c r="AC3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AD3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AE3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AF3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH3" t="s">
         <v>305</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>306</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>307</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>308</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>310</v>
-      </c>
       <c r="AL3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AM3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AO3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="AR4" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
@@ -3494,56 +3494,56 @@
     </row>
     <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AN6" s="6">
         <v>0</v>
@@ -3552,13 +3552,13 @@
         <v>16</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AR6" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -3579,25 +3579,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -3606,11 +3606,11 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>108</v>
@@ -3619,92 +3619,92 @@
         <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q3" t="s">
         <v>188</v>
@@ -3715,58 +3715,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -3794,49 +3794,49 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
@@ -3987,7 +3987,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>93</v>
@@ -4053,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4316,13 +4316,13 @@
         <v>167</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>168</v>
@@ -4439,14 +4439,14 @@
       <c r="E4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>143</v>
@@ -4458,40 +4458,40 @@
         <v>145</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>158</v>
@@ -4503,7 +4503,7 @@
         <v>160</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>162</v>
@@ -4524,16 +4524,16 @@
         <v>167</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>169</v>
@@ -4545,7 +4545,7 @@
         <v>171</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>173</v>
@@ -4557,10 +4557,10 @@
         <v>175</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>178</v>
@@ -4572,7 +4572,7 @@
         <v>180</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
@@ -4631,13 +4631,13 @@
     </row>
     <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
@@ -4655,16 +4655,16 @@
         <v>36.4</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>98</v>
@@ -4676,58 +4676,58 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>192</v>
       </c>
       <c r="T6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="Z6" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA6" s="7">
         <v>20</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AH6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AI6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AJ6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>196</v>
@@ -4736,13 +4736,13 @@
         <v>160</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR6" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="AS6" s="7" t="s">
         <v>98</v>
@@ -4751,16 +4751,16 @@
         <v>60</v>
       </c>
       <c r="AU6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AV6" s="7" t="s">
+      <c r="AX6" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4774,7 +4774,7 @@
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4817,7 +4817,7 @@
         <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>109</v>
@@ -4826,7 +4826,7 @@
         <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>109</v>
@@ -4841,34 +4841,34 @@
         <v>109</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>124</v>
@@ -4880,31 +4880,31 @@
         <v>109</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4933,106 +4933,106 @@
         <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -5049,183 +5049,183 @@
         <v>185</v>
       </c>
       <c r="U3" t="s">
+        <v>292</v>
+      </c>
+      <c r="W3" t="s">
+        <v>293</v>
+      </c>
+      <c r="X3" t="s">
         <v>294</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>295</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>296</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>297</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>298</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>299</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>300</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AH3" t="s">
         <v>301</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AI3" t="s">
         <v>302</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>303</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>304</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>305</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>306</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>307</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>308</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H4" t="s">
+        <v>695</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -5276,16 +5276,16 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
@@ -5300,49 +5300,49 @@
         <v>185</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="R6" t="s">
+        <v>645</v>
+      </c>
+      <c r="S6" t="s">
+        <v>646</v>
+      </c>
+      <c r="T6" t="s">
+        <v>645</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="R6" t="s">
-        <v>651</v>
-      </c>
-      <c r="S6" t="s">
-        <v>652</v>
-      </c>
-      <c r="T6" t="s">
-        <v>651</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="AP6" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -5355,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5390,10 +5390,10 @@
         <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>130</v>
@@ -5405,34 +5405,34 @@
         <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>122</v>
@@ -5444,7 +5444,7 @@
         <v>109</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>108</v>
@@ -5453,13 +5453,13 @@
         <v>109</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5488,76 +5488,76 @@
         <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -5574,143 +5574,143 @@
         <v>185</v>
       </c>
       <c r="I3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" t="s">
+        <v>376</v>
+      </c>
+      <c r="O3" t="s">
+        <v>377</v>
+      </c>
+      <c r="P3" t="s">
         <v>378</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
         <v>379</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>380</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>381</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>384</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>385</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AD3" t="s">
         <v>386</v>
-      </c>
-      <c r="U3" t="s">
-        <v>387</v>
-      </c>
-      <c r="V3" t="s">
-        <v>388</v>
-      </c>
-      <c r="W3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>390</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>696</v>
+      </c>
+      <c r="H4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -5752,16 +5752,16 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
@@ -5776,28 +5776,28 @@
         <v>185</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="N6" s="6">
         <v>85.3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="6">
         <v>10</v>
@@ -5806,34 +5806,34 @@
         <v>22</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="X6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD6" s="11">
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5865,126 +5865,126 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="K4" t="s">
         <v>437</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6004,19 +6004,19 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -6025,33 +6025,33 @@
         <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -6060,33 +6060,33 @@
         <v>98</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -6095,16 +6095,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6131,25 +6131,25 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6158,145 +6158,145 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" t="s">
         <v>305</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>306</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>307</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>308</v>
-      </c>
-      <c r="N3" t="s">
-        <v>309</v>
-      </c>
-      <c r="O3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6321,49 +6321,49 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6384,25 +6384,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6413,71 +6413,71 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6495,31 +6495,31 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6545,25 +6545,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6572,109 +6572,109 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6696,34 +6696,34 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K6" s="6">
         <v>70</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87DEAE-4A1A-C24A-A7AF-E9725F8B0D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010EFD2-2A09-F748-97F3-CABF0881F641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="701">
   <si>
     <t>A short name for the project.</t>
   </si>
@@ -1858,12 +1858,6 @@
     <t>enrichment_protocol.markers</t>
   </si>
   <si>
-    <t>enrichment_protocol.min_size_selected</t>
-  </si>
-  <si>
-    <t>enrichment_protocol.max_size_selected</t>
-  </si>
-  <si>
     <t>donor_organism.diseases.text</t>
   </si>
   <si>
@@ -2135,6 +2129,21 @@
   </si>
   <si>
     <t>cell_suspension.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.text</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.minimum_size</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.maximum_size</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2707,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2801,7 +2810,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -2810,19 +2819,19 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>49</v>
@@ -2831,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2856,13 +2865,13 @@
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
@@ -3103,16 +3112,16 @@
         <v>517</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>285</v>
@@ -3335,16 +3344,16 @@
         <v>517</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>674</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>542</v>
@@ -3494,13 +3503,13 @@
     </row>
     <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>456</v>
@@ -3530,11 +3539,11 @@
         <v>571</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>572</v>
@@ -3748,13 +3757,13 @@
         <v>477</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>494</v>
@@ -3794,13 +3803,13 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>456</v>
@@ -3987,7 +3996,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>93</v>
@@ -4316,13 +4325,13 @@
         <v>167</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>168</v>
@@ -4440,10 +4449,10 @@
         <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>205</v>
@@ -4524,13 +4533,13 @@
         <v>167</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>219</v>
@@ -4631,13 +4640,13 @@
     </row>
     <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
@@ -4676,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>227</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>192</v>
@@ -4691,7 +4700,7 @@
         <v>228</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="X6" s="7" t="s">
         <v>229</v>
@@ -4715,19 +4724,19 @@
         <v>231</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AH6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AI6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AJ6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>196</v>
@@ -4960,13 +4969,13 @@
         <v>269</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>270</v>
@@ -5120,10 +5129,10 @@
         <v>313</v>
       </c>
       <c r="G4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>261</v>
@@ -5144,22 +5153,22 @@
         <v>266</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>682</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>314</v>
@@ -5168,7 +5177,7 @@
         <v>315</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>316</v>
@@ -5180,7 +5189,7 @@
         <v>318</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>319</v>
@@ -5276,16 +5285,16 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
@@ -5327,13 +5336,13 @@
         <v>333</v>
       </c>
       <c r="R6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>335</v>
@@ -5342,7 +5351,7 @@
         <v>336</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -5355,7 +5364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
@@ -5551,7 +5560,7 @@
         <v>372</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>373</v>
@@ -5635,10 +5644,10 @@
         <v>391</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>392</v>
@@ -5704,7 +5713,7 @@
         <v>372</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>404</v>
@@ -5752,16 +5761,16 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
@@ -5830,10 +5839,10 @@
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5886,7 +5895,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>351</v>
@@ -5921,7 +5930,7 @@
         <v>422</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>373</v>
@@ -5975,7 +5984,7 @@
         <v>434</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>435</v>
@@ -6004,16 +6013,16 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>438</v>
@@ -6028,10 +6037,10 @@
         <v>428</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>439</v>
@@ -6039,16 +6048,16 @@
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>440</v>
@@ -6063,10 +6072,10 @@
         <v>428</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>439</v>
@@ -6074,16 +6083,16 @@
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>441</v>
@@ -6098,10 +6107,10 @@
         <v>428</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>439</v>
@@ -6272,31 +6281,31 @@
         <v>463</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6321,13 +6330,13 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>456</v>
@@ -6471,13 +6480,13 @@
         <v>584</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6495,13 +6504,13 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>456</v>
@@ -6532,8 +6541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6658,23 +6667,23 @@
       <c r="F4" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>696</v>
+      </c>
+      <c r="H4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I4" t="s">
+        <v>698</v>
+      </c>
+      <c r="J4" t="s">
         <v>604</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>606</v>
+      <c r="K4" t="s">
+        <v>699</v>
+      </c>
+      <c r="L4" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6696,13 +6705,13 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>456</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010EFD2-2A09-F748-97F3-CABF0881F641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50DCFE-DD3E-924C-86BC-05AC8DFB7778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="704">
   <si>
     <t>A short name for the project.</t>
   </si>
@@ -2144,6 +2144,15 @@
   </si>
   <si>
     <t>enrichment_protocol.maximum_size</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.text</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.ontology</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -5364,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5703,14 +5712,14 @@
       <c r="Z4" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>372</v>
+      <c r="AA4" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>657</v>
@@ -6541,7 +6550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:L4"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010EFD2-2A09-F748-97F3-CABF0881F641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B1476-E088-8342-BFC4-77F3769F1640}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18480" yWindow="4820" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>0000-1111-2222-3333</t>
   </si>
   <si>
-    <t>project.contributors.contact_name</t>
-  </si>
-  <si>
     <t>project.contributors.email</t>
   </si>
   <si>
@@ -2144,6 +2141,9 @@
   </si>
   <si>
     <t>enrichment_protocol.maximum_size</t>
+  </si>
+  <si>
+    <t>project.contributors.name</t>
   </si>
 </sst>
 </file>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2810,7 +2810,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -2819,19 +2819,19 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>49</v>
@@ -2840,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2865,13 +2865,13 @@
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
@@ -2935,518 +2935,518 @@
   <sheetData>
     <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="G3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I3" t="s">
         <v>528</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
+        <v>302</v>
+      </c>
+      <c r="R3" t="s">
+        <v>303</v>
+      </c>
+      <c r="S3" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" t="s">
+        <v>305</v>
+      </c>
+      <c r="U3" t="s">
+        <v>306</v>
+      </c>
+      <c r="V3" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" t="s">
+        <v>302</v>
+      </c>
+      <c r="X3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC3" t="s">
         <v>529</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AD3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG3" t="s">
         <v>303</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AH3" t="s">
         <v>304</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AI3" t="s">
         <v>305</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AJ3" t="s">
         <v>306</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AK3" t="s">
         <v>307</v>
       </c>
-      <c r="V3" t="s">
-        <v>308</v>
-      </c>
-      <c r="W3" t="s">
-        <v>303</v>
-      </c>
-      <c r="X3" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AL3" t="s">
         <v>532</v>
       </c>
-      <c r="AF3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>533</v>
-      </c>
       <c r="AM3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO3" t="s">
         <v>528</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="AP4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
@@ -3503,56 +3503,56 @@
     </row>
     <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>634</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="J6" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AM6" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="AN6" s="6">
         <v>0</v>
@@ -3561,13 +3561,13 @@
         <v>16</v>
       </c>
       <c r="AP6" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AQ6" s="6" t="s">
-        <v>576</v>
-      </c>
       <c r="AR6" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3588,135 +3588,135 @@
   <sheetData>
     <row r="1" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="J3" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" t="s">
         <v>485</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>486</v>
       </c>
-      <c r="P3" t="s">
-        <v>487</v>
-      </c>
       <c r="Q3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R3" t="s">
         <v>82</v>
@@ -3724,58 +3724,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -3803,55 +3803,55 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3864,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3972,34 +3972,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4019,13 +4019,13 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>78</v>
@@ -4034,13 +4034,13 @@
         <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>83</v>
@@ -4073,515 +4073,515 @@
   <sheetData>
     <row r="1" spans="1:51" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>182</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>183</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>184</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>187</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>188</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>190</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>191</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>192</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>193</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>194</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AK3" t="s">
         <v>195</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>196</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AS3" t="s">
         <v>197</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>198</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F4" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" t="s">
-        <v>691</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
@@ -4640,43 +4640,43 @@
     </row>
     <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>36.4</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" s="7">
         <v>4</v>
@@ -4685,91 +4685,91 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="S6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="T6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="X6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Z6" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA6" s="7">
         <v>20</v>
       </c>
       <c r="AB6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AC6" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="AD6" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI6" t="s">
         <v>643</v>
       </c>
-      <c r="AI6" t="s">
-        <v>644</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO6" s="7">
         <v>160</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AR6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="AS6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AT6" s="7">
         <v>60</v>
       </c>
       <c r="AU6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AV6" s="7" t="s">
+      <c r="AW6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AW6" s="7" t="s">
+      <c r="AX6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4790,451 +4790,451 @@
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>183</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>184</v>
       </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
       <c r="U3" t="s">
+        <v>291</v>
+      </c>
+      <c r="W3" t="s">
         <v>292</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>293</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>294</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>295</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>297</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>298</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>299</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>300</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>301</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>302</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>303</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>304</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>305</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>306</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>307</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H4" t="s">
-        <v>693</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -5285,73 +5285,73 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="I6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="R6" t="s">
+        <v>642</v>
+      </c>
+      <c r="S6" t="s">
+        <v>643</v>
+      </c>
+      <c r="T6" t="s">
+        <v>642</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="R6" t="s">
-        <v>643</v>
-      </c>
-      <c r="S6" t="s">
-        <v>644</v>
-      </c>
-      <c r="T6" t="s">
-        <v>643</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="AP6" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5375,351 +5375,351 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>183</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>184</v>
       </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
       <c r="I3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" t="s">
         <v>374</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>375</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>376</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>377</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>378</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>379</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>380</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>381</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>384</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AD3" t="s">
         <v>385</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>386</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G4" t="s">
-        <v>694</v>
-      </c>
-      <c r="H4" t="s">
-        <v>695</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -5761,52 +5761,52 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="I6" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="K6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="N6" s="6">
         <v>85.3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q6" s="6">
         <v>10</v>
@@ -5815,34 +5815,34 @@
         <v>22</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V6" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="X6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="Z6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD6" s="11">
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5874,126 +5874,126 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" t="s">
         <v>424</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>425</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>426</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>427</v>
-      </c>
-      <c r="H3" t="s">
-        <v>428</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
         <v>436</v>
-      </c>
-      <c r="K4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6013,19 +6013,19 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>682</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -6034,33 +6034,33 @@
         <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>684</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -6069,33 +6069,33 @@
         <v>98</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>686</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -6104,16 +6104,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -6140,172 +6140,172 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="J3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
         <v>303</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>304</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>305</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>306</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>307</v>
-      </c>
-      <c r="O3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6330,49 +6330,49 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>628</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6393,100 +6393,100 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
-      </c>
-      <c r="F3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6504,31 +6504,31 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:L4"/>
     </sheetView>
   </sheetViews>
@@ -6554,136 +6554,136 @@
   <sheetData>
     <row r="1" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="J3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" t="s">
         <v>596</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>597</v>
-      </c>
-      <c r="L3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>695</v>
+      </c>
+      <c r="H4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I4" t="s">
+        <v>697</v>
+      </c>
+      <c r="J4" t="s">
         <v>603</v>
       </c>
-      <c r="G4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H4" t="s">
-        <v>697</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>698</v>
       </c>
-      <c r="J4" t="s">
-        <v>604</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>699</v>
-      </c>
-      <c r="L4" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6705,34 +6705,34 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>640</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>586</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K6" s="6">
         <v>70</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50DCFE-DD3E-924C-86BC-05AC8DFB7778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EBF53A-441B-CD40-A26F-03EC872B3FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20800" yWindow="3680" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1333,9 +1333,6 @@
     <t>sequence_file.file_core.file_name</t>
   </si>
   <si>
-    <t>sequence_file.file_core.file_format</t>
-  </si>
-  <si>
     <t>sequence_file.file_core.checksum</t>
   </si>
   <si>
@@ -2153,6 +2150,9 @@
   </si>
   <si>
     <t>cell_suspension.selected_cell_types.ontology_label</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.format</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2819,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -2828,19 +2828,19 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>49</v>
@@ -2849,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2874,13 +2874,13 @@
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
@@ -2944,34 +2944,34 @@
   <sheetData>
     <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>108</v>
@@ -2980,7 +2980,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>108</v>
@@ -3026,13 +3026,13 @@
         <v>259</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>254</v>
@@ -3053,19 +3053,19 @@
         <v>259</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>108</v>
@@ -3074,7 +3074,7 @@
         <v>109</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>108</v>
@@ -3088,49 +3088,49 @@
         <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>285</v>
@@ -3169,13 +3169,13 @@
         <v>290</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>285</v>
@@ -3196,51 +3196,51 @@
         <v>290</v>
       </c>
       <c r="AL2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="G3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I3" t="s">
         <v>528</v>
-      </c>
-      <c r="I3" t="s">
-        <v>529</v>
       </c>
       <c r="Q3" t="s">
         <v>303</v>
@@ -3279,13 +3279,13 @@
         <v>308</v>
       </c>
       <c r="AC3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD3" t="s">
         <v>530</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>531</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>532</v>
       </c>
       <c r="AF3" t="s">
         <v>303</v>
@@ -3306,156 +3306,156 @@
         <v>308</v>
       </c>
       <c r="AL3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO3" t="s">
         <v>528</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="AP4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
@@ -3512,56 +3512,56 @@
     </row>
     <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>634</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="J6" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AM6" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="AN6" s="6">
         <v>0</v>
@@ -3570,13 +3570,13 @@
         <v>16</v>
       </c>
       <c r="AP6" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AQ6" s="6" t="s">
-        <v>576</v>
-      </c>
       <c r="AR6" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3597,25 +3597,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -3624,11 +3624,11 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>108</v>
@@ -3637,16 +3637,16 @@
         <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3654,75 +3654,75 @@
         <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="J3" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" t="s">
         <v>485</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>486</v>
-      </c>
-      <c r="P3" t="s">
-        <v>487</v>
       </c>
       <c r="Q3" t="s">
         <v>188</v>
@@ -3733,58 +3733,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -3812,49 +3812,49 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
@@ -4005,7 +4005,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>93</v>
@@ -4334,13 +4334,13 @@
         <v>167</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>168</v>
@@ -4458,10 +4458,10 @@
         <v>204</v>
       </c>
       <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" t="s">
         <v>690</v>
-      </c>
-      <c r="G4" t="s">
-        <v>691</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>205</v>
@@ -4542,13 +4542,13 @@
         <v>167</v>
       </c>
       <c r="AH4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AI4" s="3" t="s">
-        <v>606</v>
-      </c>
       <c r="AJ4" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>219</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
@@ -4694,13 +4694,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>227</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>192</v>
@@ -4709,7 +4709,7 @@
         <v>228</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="X6" s="7" t="s">
         <v>229</v>
@@ -4733,19 +4733,19 @@
         <v>231</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI6" t="s">
         <v>643</v>
       </c>
-      <c r="AI6" t="s">
-        <v>644</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>196</v>
@@ -4978,13 +4978,13 @@
         <v>269</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>270</v>
@@ -5138,10 +5138,10 @@
         <v>313</v>
       </c>
       <c r="G4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H4" t="s">
         <v>692</v>
-      </c>
-      <c r="H4" t="s">
-        <v>693</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>261</v>
@@ -5162,22 +5162,22 @@
         <v>266</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="R4" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>314</v>
@@ -5186,7 +5186,7 @@
         <v>315</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>316</v>
@@ -5198,7 +5198,7 @@
         <v>318</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>319</v>
@@ -5294,16 +5294,16 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
@@ -5345,13 +5345,13 @@
         <v>333</v>
       </c>
       <c r="R6" t="s">
+        <v>642</v>
+      </c>
+      <c r="S6" t="s">
         <v>643</v>
       </c>
-      <c r="S6" t="s">
-        <v>644</v>
-      </c>
       <c r="T6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>335</v>
@@ -5360,7 +5360,7 @@
         <v>336</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5373,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4:AC4"/>
     </sheetView>
   </sheetViews>
@@ -5569,7 +5569,7 @@
         <v>372</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>373</v>
@@ -5653,10 +5653,10 @@
         <v>391</v>
       </c>
       <c r="G4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H4" t="s">
         <v>694</v>
-      </c>
-      <c r="H4" t="s">
-        <v>695</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>392</v>
@@ -5713,16 +5713,16 @@
         <v>369</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>404</v>
@@ -5770,16 +5770,16 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
@@ -5848,10 +5848,10 @@
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5867,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5904,7 +5904,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>351</v>
@@ -5939,7 +5939,7 @@
         <v>422</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>373</v>
@@ -5978,31 +5978,31 @@
         <v>387</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
         <v>436</v>
-      </c>
-      <c r="K4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6022,19 +6022,19 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -6046,30 +6046,30 @@
         <v>428</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -6081,30 +6081,30 @@
         <v>428</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -6116,13 +6116,13 @@
         <v>428</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -6149,25 +6149,25 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6199,28 +6199,28 @@
         <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>285</v>
@@ -6243,13 +6243,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
-      </c>
-      <c r="F3" t="s">
-        <v>458</v>
       </c>
       <c r="J3" t="s">
         <v>303</v>
@@ -6275,46 +6275,46 @@
         <v>330</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6339,31 +6339,31 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>628</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>303</v>
@@ -6402,25 +6402,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6434,39 +6434,39 @@
         <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
-      </c>
-      <c r="F3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6474,28 +6474,28 @@
         <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6513,31 +6513,31 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6563,25 +6563,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -6590,13 +6590,13 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6604,57 +6604,57 @@
         <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
         <v>456</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
-        <v>458</v>
-      </c>
       <c r="J3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" t="s">
         <v>596</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>597</v>
-      </c>
-      <c r="L3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6662,37 +6662,37 @@
         <v>405</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>695</v>
+      </c>
+      <c r="H4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I4" t="s">
+        <v>697</v>
+      </c>
+      <c r="J4" t="s">
         <v>603</v>
       </c>
-      <c r="G4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H4" t="s">
-        <v>697</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>698</v>
       </c>
-      <c r="J4" t="s">
-        <v>604</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>699</v>
-      </c>
-      <c r="L4" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6714,34 +6714,34 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>640</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>586</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K6" s="6">
         <v>70</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EBF53A-441B-CD40-A26F-03EC872B3FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F1266-7E67-8A44-B171-C17C41C6D29D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="3680" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20800" yWindow="3680" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>0000-1111-2222-3333</t>
   </si>
   <si>
-    <t>project.contributors.contact_name</t>
-  </si>
-  <si>
     <t>project.contributors.email</t>
   </si>
   <si>
@@ -2153,6 +2150,9 @@
   </si>
   <si>
     <t>sequence_file.file_core.format</t>
+  </si>
+  <si>
+    <t>project.contributors.name</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2819,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -2828,19 +2828,19 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>49</v>
@@ -2849,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2874,13 +2874,13 @@
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
@@ -2944,518 +2944,518 @@
   <sheetData>
     <row r="1" spans="1:48" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
-        <v>457</v>
-      </c>
       <c r="G3" t="s">
+        <v>526</v>
+      </c>
+      <c r="I3" t="s">
         <v>527</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
+        <v>302</v>
+      </c>
+      <c r="R3" t="s">
+        <v>303</v>
+      </c>
+      <c r="S3" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" t="s">
+        <v>305</v>
+      </c>
+      <c r="U3" t="s">
+        <v>306</v>
+      </c>
+      <c r="V3" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" t="s">
+        <v>302</v>
+      </c>
+      <c r="X3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC3" t="s">
         <v>528</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AD3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG3" t="s">
         <v>303</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AH3" t="s">
         <v>304</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AI3" t="s">
         <v>305</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AJ3" t="s">
         <v>306</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AK3" t="s">
         <v>307</v>
       </c>
-      <c r="V3" t="s">
-        <v>308</v>
-      </c>
-      <c r="W3" t="s">
-        <v>303</v>
-      </c>
-      <c r="X3" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AL3" t="s">
         <v>531</v>
       </c>
-      <c r="AF3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>532</v>
-      </c>
       <c r="AM3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO3" t="s">
         <v>527</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="AP4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
@@ -3512,56 +3512,56 @@
     </row>
     <row r="6" spans="1:48" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>633</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="J6" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>570</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="AC6" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AM6" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="AN6" s="6">
         <v>0</v>
@@ -3570,13 +3570,13 @@
         <v>16</v>
       </c>
       <c r="AP6" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="AQ6" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="AR6" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3597,135 +3597,135 @@
   <sheetData>
     <row r="1" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
-        <v>457</v>
-      </c>
       <c r="J3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O3" t="s">
         <v>484</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="P3" t="s">
-        <v>486</v>
-      </c>
       <c r="Q3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R3" t="s">
         <v>82</v>
@@ -3733,58 +3733,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -3812,55 +3812,55 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>636</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3873,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3981,34 +3981,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4028,13 +4028,13 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>78</v>
@@ -4043,13 +4043,13 @@
         <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>83</v>
@@ -4082,515 +4082,515 @@
   <sheetData>
     <row r="1" spans="1:51" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>182</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>183</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>184</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>187</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>188</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>190</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>191</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>192</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>193</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>194</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AK3" t="s">
         <v>195</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>196</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AS3" t="s">
         <v>197</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>198</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F4" t="s">
-        <v>689</v>
-      </c>
-      <c r="G4" t="s">
-        <v>690</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
@@ -4649,43 +4649,43 @@
     </row>
     <row r="6" spans="1:51" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="D6" s="7">
         <v>9606</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>36.4</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" s="7">
         <v>4</v>
@@ -4694,91 +4694,91 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="S6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="T6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="X6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Z6" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA6" s="7">
         <v>20</v>
       </c>
       <c r="AB6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AC6" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="AD6" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AH6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AI6" t="s">
         <v>642</v>
       </c>
-      <c r="AI6" t="s">
-        <v>643</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO6" s="7">
         <v>160</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AR6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="AS6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AT6" s="7">
         <v>60</v>
       </c>
       <c r="AU6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AV6" s="7" t="s">
+      <c r="AW6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AW6" s="7" t="s">
+      <c r="AX6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4799,451 +4799,451 @@
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>183</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>184</v>
       </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
       <c r="U3" t="s">
+        <v>291</v>
+      </c>
+      <c r="W3" t="s">
         <v>292</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>293</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>294</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>295</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>297</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>298</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>299</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>300</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>301</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>302</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>303</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>304</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>305</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>306</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>307</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H4" t="s">
+        <v>691</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G4" t="s">
-        <v>691</v>
-      </c>
-      <c r="H4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -5294,73 +5294,73 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="E6" s="9">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="I6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="R6" t="s">
+        <v>641</v>
+      </c>
+      <c r="S6" t="s">
+        <v>642</v>
+      </c>
+      <c r="T6" t="s">
+        <v>641</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="R6" t="s">
-        <v>642</v>
-      </c>
-      <c r="S6" t="s">
-        <v>643</v>
-      </c>
-      <c r="T6" t="s">
-        <v>642</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="AP6" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5384,351 +5384,351 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>183</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>184</v>
       </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
       <c r="I3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" t="s">
         <v>374</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>375</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>376</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>377</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>378</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>379</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>380</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>381</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>384</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AD3" t="s">
         <v>385</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>386</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H4" t="s">
+        <v>693</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G4" t="s">
-        <v>693</v>
-      </c>
-      <c r="H4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -5770,52 +5770,52 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="E6" s="6">
         <v>9606</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="I6" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="K6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="N6" s="6">
         <v>85.3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q6" s="6">
         <v>10</v>
@@ -5824,34 +5824,34 @@
         <v>22</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V6" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="X6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="Z6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD6" s="11">
         <v>5000</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5883,126 +5883,126 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" t="s">
         <v>424</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>425</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>426</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>427</v>
-      </c>
-      <c r="H3" t="s">
-        <v>428</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
         <v>435</v>
-      </c>
-      <c r="K4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6022,19 +6022,19 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>681</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -6043,33 +6043,33 @@
         <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>683</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -6078,33 +6078,33 @@
         <v>98</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>685</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -6113,16 +6113,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6149,172 +6149,172 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
-        <v>457</v>
-      </c>
       <c r="J3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
         <v>303</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>304</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>305</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>306</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>307</v>
-      </c>
-      <c r="O3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6339,49 +6339,49 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>627</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6402,100 +6402,100 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
-      </c>
-      <c r="F3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6513,31 +6513,31 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>630</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6563,136 +6563,136 @@
   <sheetData>
     <row r="1" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
-        <v>457</v>
-      </c>
       <c r="J3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K3" t="s">
         <v>595</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>596</v>
-      </c>
-      <c r="L3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H4" t="s">
+        <v>695</v>
+      </c>
+      <c r="I4" t="s">
+        <v>696</v>
+      </c>
+      <c r="J4" t="s">
         <v>602</v>
       </c>
-      <c r="G4" t="s">
-        <v>695</v>
-      </c>
-      <c r="H4" t="s">
-        <v>696</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>697</v>
       </c>
-      <c r="J4" t="s">
-        <v>603</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>698</v>
-      </c>
-      <c r="L4" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6714,34 +6714,34 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>639</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K6" s="6">
         <v>70</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F1266-7E67-8A44-B171-C17C41C6D29D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A993E3-4F18-2243-BC01-CC2B7959D3A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="3680" windowWidth="28800" windowHeight="16580" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="11140" windowWidth="28800" windowHeight="16580" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="717">
   <si>
     <t>A short name for the project.</t>
   </si>
@@ -2153,6 +2153,45 @@
   </si>
   <si>
     <t>project.contributors.name</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.text</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.ontology</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.ontology_label</t>
+  </si>
+  <si>
+    <t>Content description</t>
+  </si>
+  <si>
+    <t>Content description ontology</t>
+  </si>
+  <si>
+    <t>Content description ontology label</t>
+  </si>
+  <si>
+    <t>General description of the contents of the file.</t>
+  </si>
+  <si>
+    <t>An ontology term identifier in the form prefix:accession.</t>
+  </si>
+  <si>
+    <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
+  </si>
+  <si>
+    <t>DNA sequence (raw); Sequence alignment</t>
+  </si>
+  <si>
+    <t>DATA:3497; DATA:0863</t>
+  </si>
+  <si>
+    <t>DNA sequence (raw)</t>
+  </si>
+  <si>
+    <t>data:3497</t>
   </si>
 </sst>
 </file>
@@ -3873,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -5865,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5877,11 +5916,14 @@
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>409</v>
       </c>
@@ -5906,17 +5948,26 @@
       <c r="H1" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>416</v>
       </c>
@@ -5942,16 +5993,25 @@
         <v>650</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>423</v>
       </c>
@@ -5967,10 +6027,19 @@
       <c r="H3" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" t="s">
+        <v>713</v>
+      </c>
+      <c r="J3" t="s">
+        <v>714</v>
+      </c>
+      <c r="K3" t="s">
+        <v>713</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>428</v>
       </c>
@@ -5996,16 +6065,25 @@
         <v>649</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -6017,10 +6095,13 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>679</v>
       </c>
@@ -6046,16 +6127,25 @@
         <v>427</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>681</v>
       </c>
@@ -6081,16 +6171,25 @@
         <v>427</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>683</v>
       </c>
@@ -6116,19 +6215,25 @@
         <v>427</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>437</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J5:K5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/HumanCellAtlas/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A993E3-4F18-2243-BC01-CC2B7959D3A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5DFC94-7607-E84B-BD54-5E2C3409C73A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="11140" windowWidth="28800" windowHeight="16580" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="5960" windowWidth="28800" windowHeight="16580" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -2188,10 +2188,10 @@
     <t>DATA:3497; DATA:0863</t>
   </si>
   <si>
-    <t>DNA sequence (raw)</t>
-  </si>
-  <si>
-    <t>data:3497</t>
+    <t>DNA sequence</t>
+  </si>
+  <si>
+    <t>data:3494</t>
   </si>
 </sst>
 </file>
@@ -5907,7 +5907,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_optimus_10X_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/HumanCellAtlas/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mshadbolt/Desktop/git_repos/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5DFC94-7607-E84B-BD54-5E2C3409C73A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53609508-D1FF-0B47-A574-5FD27D0CCCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="5960" windowWidth="28800" windowHeight="16580" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45920" yWindow="4600" windowWidth="37920" windowHeight="19800" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -2695,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2732,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
@@ -2823,7 +2823,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -2832,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -2937,7 +2937,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>37</v>
@@ -2946,7 +2946,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>40</v>
@@ -5906,7 +5906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
